--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2335.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2335.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.92716009988103</v>
+        <v>0.9677374958992004</v>
       </c>
       <c r="B1">
-        <v>4.000280311507255</v>
+        <v>0.904264509677887</v>
       </c>
       <c r="C1">
-        <v>2.167697358093043</v>
+        <v>0.7815846800804138</v>
       </c>
       <c r="D1">
-        <v>0.7213933698247762</v>
+        <v>0.83417809009552</v>
       </c>
       <c r="E1">
-        <v>0.4758997354179594</v>
+        <v>0.9995025396347046</v>
       </c>
     </row>
   </sheetData>
